--- a/data/income_statement/3digits/total/283_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/283_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>283-Manufacture of agricultural and forestry machinery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>283-Manufacture of agricultural and forestry machinery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1795707.25834</v>
@@ -959,34 +865,39 @@
         <v>5130916.55109</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5209282.074910001</v>
+        <v>5209282.07491</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5880943.050340001</v>
+        <v>5997166.666789999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7098139.257640001</v>
+        <v>7143427.029399999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4967186.621429999</v>
+        <v>8492982.565839998</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9598322.493530001</v>
+        <v>9895417.480319999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>12345699.834</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12598091.29128</v>
+        <v>12600288.77148</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12334532.66608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12393464.07787</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>20554866.196</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1248653.92738</v>
@@ -1001,34 +912,39 @@
         <v>4026888.26714</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4564056.36991</v>
+        <v>4667185.6597</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5388403.03722</v>
+        <v>5426377.005380001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4156109.1262</v>
+        <v>6693050.98672</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7659072.80577</v>
+        <v>7828907.49942</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>9635345.941330001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8442534.93148</v>
+        <v>8444344.9857</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7269142.50564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7321105.91551</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14736196.586</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>541252.34843</v>
+        <v>541252.3484299999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>648130.63562</v>
@@ -1040,34 +956,39 @@
         <v>1170793.68851</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1289042.89602</v>
+        <v>1302137.22268</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1677535.08978</v>
+        <v>1684809.0089</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>785716.7171200002</v>
+        <v>1773983.62281</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1894269.17032</v>
+        <v>2017444.2675</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2644108.20421</v>
+        <v>2644108.204210001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4044158.66086</v>
+        <v>4044539.662</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4939716.55389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4946825.442439999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5709687.303</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5800.982529999999</v>
+        <v>5800.98253</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>11703.50793</v>
@@ -1082,28 +1003,33 @@
         <v>27843.78441</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>32201.13064</v>
+        <v>32241.01512</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>25360.77811</v>
+        <v>25947.95631</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>44980.51744</v>
+        <v>49065.7134</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>66245.68846</v>
+        <v>66245.68845999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>111397.69894</v>
+        <v>111404.12378</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>125673.60655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>125532.71992</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>108982.307</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>78480.23299999999</v>
@@ -1118,31 +1044,36 @@
         <v>214603.90688</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>241493.24498</v>
+        <v>255233.6236</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>313325.25389</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>153599.78087</v>
+        <v>449885.94217</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>652118.64036</v>
+        <v>716057.39931</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>928911.8595200001</v>
+        <v>928911.8595199999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>835220.7328900001</v>
+        <v>835230.0628899999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>699603.03874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>699768.7822200001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1249567.301</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>22963.27164</v>
@@ -1154,58 +1085,63 @@
         <v>33164.68749</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>40864.60104000001</v>
+        <v>40864.60104</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>41922.02889</v>
+        <v>50613.82418</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>58713.73744999999</v>
+        <v>58713.73745</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>63664.10436</v>
+        <v>69773.23604</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>131078.87807</v>
+        <v>136969.42585</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>185273.90876</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>234410.16687</v>
+        <v>234419.49687</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>163350.609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>163516.35248</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>194353.091</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>23734.98236999999</v>
+        <v>23734.98237</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>56068.22837</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>61088.22277</v>
+        <v>61088.22276999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>45086.96436999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>43411.13854000001</v>
+        <v>48459.72186999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>71500.04247</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>87164.74268</v>
+        <v>138185.44746</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>203891.59674</v>
+        <v>261939.80791</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>359518.60945</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>317662.50756</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>578424.961</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>31781.97899</v>
@@ -1241,7 +1182,7 @@
         <v>183111.47397</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2770.93383</v>
+        <v>241927.25867</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>317148.16555</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>218589.92218</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>476789.249</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1717227.02534</v>
@@ -1274,31 +1220,36 @@
         <v>4994678.168029999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5639449.80536</v>
+        <v>5741933.043190001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6784814.00375</v>
+        <v>6830101.775509999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4813586.840559999</v>
+        <v>8043096.62367</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8946203.85317</v>
+        <v>9179360.081010001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>11416787.97448</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11762870.55839</v>
+        <v>11765058.70859</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11634929.62734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11693695.29565</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>19305298.895</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1413226.13323</v>
@@ -1307,37 +1258,42 @@
         <v>2348372.18192</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3859817.900129999</v>
+        <v>3859817.90013</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>4011061.51796</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4419900.357519999</v>
+        <v>4496881.42536</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5547523.374060001</v>
+        <v>5580088.153940001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3821367.01641</v>
+        <v>6386553.489169999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7034136.72657</v>
+        <v>7237135.672270001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>9280103.34695</v>
+        <v>9280103.346949998</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9599985.25248</v>
+        <v>9601993.07133</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9665986.899770001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9711237.696319999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>15625837.82</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1170905.05678</v>
@@ -1346,76 +1302,86 @@
         <v>2009436.72332</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3378627.161040001</v>
+        <v>3378627.16104</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>3503625.09163</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3809610.92979</v>
+        <v>3886581.72263</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4888838.33541</v>
+        <v>4921130.27927</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3350636.38392</v>
+        <v>5561902.503589999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5981410.609110001</v>
+        <v>6181132.339729999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>7943024.75629</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8101079.71616</v>
+        <v>8102042.14569</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8367179.78373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8399116.174209999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>13146148.645</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>230223.59024</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>317275.9188200001</v>
+        <v>317275.9188199999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>460754.40306</v>
+        <v>460754.4030599999</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>475432.69172</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>591042.11313</v>
+        <v>591052.3881299999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>635013.76575</v>
+        <v>635120.31575</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>439751.91864</v>
+        <v>792728.23461</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1007800.86303</v>
+        <v>1011063.6372</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1286305.44696</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1417972.16226</v>
+        <v>1418777.37464</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1239831.30241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1251373.63767</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2427496.874</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>9296.477720000001</v>
@@ -1433,28 +1399,33 @@
         <v>15919.80263</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>19828.97749</v>
+        <v>19995.26351</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>23390.25218</v>
+        <v>24334.2893</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>33722.19487000001</v>
+        <v>33736.63578</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>28519.67832</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>20463.67245</v>
+        <v>20703.84939</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>40064.52888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>40473.85195999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>28288.562</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2801.00849</v>
@@ -1463,10 +1434,10 @@
         <v>5938.22982</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3937.46546</v>
+        <v>3937.465459999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9995.713310000001</v>
+        <v>9995.713309999999</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>3327.51197</v>
@@ -1487,52 +1458,62 @@
         <v>60469.70161</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18911.28475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20274.03248</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>23903.739</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>304000.89211</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>672682.09991</v>
+        <v>672682.0999100001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1034606.57318</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>983616.6500700001</v>
+        <v>983616.65007</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1219549.44784</v>
+        <v>1245051.61783</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1237290.62969</v>
+        <v>1250013.62157</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>992219.8241500001</v>
+        <v>1656543.1345</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1912067.1266</v>
+        <v>1942224.40874</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2136684.62753</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2162885.30591</v>
+        <v>2163065.63726</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1968942.72757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1982457.59933</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3679461.075</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>196654.01562</v>
@@ -1544,34 +1525,39 @@
         <v>364525.36297</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>409671.7243</v>
+        <v>409671.7243000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>469867.97599</v>
+        <v>489713.52905</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>586706.7769200001</v>
+        <v>590173.41758</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>502291.65844</v>
+        <v>767385.9232899999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>911031.6605</v>
+        <v>937930.2665700002</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1073432.0711</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1299555.35421</v>
+        <v>1300497.3068</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1269511.0257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1273150.15264</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1465108.814</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>12296.08629</v>
@@ -1586,16 +1572,16 @@
         <v>20311.59934</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>28225.74990999999</v>
+        <v>28947.93779</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>33894.80588</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>20228.42315</v>
+        <v>36579.82783000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>46700.33886</v>
+        <v>47619.53173</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>57277.29599999999</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>138436.29668</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>144843.606</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>78593.76669999999</v>
+        <v>78593.76670000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>120470.64423</v>
@@ -1625,31 +1616,36 @@
         <v>206506.55126</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>223563.75653</v>
+        <v>239644.04778</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>293644.55991</v>
+        <v>296244.94524</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>236804.98028</v>
+        <v>400812.16573</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>472981.00046</v>
+        <v>480460.72192</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>576740.1423300001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>622775.94728</v>
+        <v>622790.29919</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>529510.5959899999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>530287.1492800001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>627206.5</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>105764.16263</v>
@@ -1664,37 +1660,42 @@
         <v>182853.5737</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>218078.46955</v>
+        <v>221121.54348</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>259167.41113</v>
+        <v>260033.66646</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>245258.25501</v>
+        <v>329993.92973</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>391350.32118</v>
+        <v>409850.01292</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>439414.63277</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>552367.4991</v>
+        <v>553295.0997799999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>601564.13303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>604426.7066800001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>693058.708</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>107346.87649</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>414328.3770799999</v>
+        <v>414328.37708</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>670081.21021</v>
@@ -1703,31 +1704,36 @@
         <v>573944.92577</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>749681.47185</v>
+        <v>755338.08878</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>650583.85277</v>
+        <v>659840.2039900001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>489928.16571</v>
+        <v>889157.2112100001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1001035.4661</v>
+        <v>1004294.14217</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1063252.55643</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>863329.9517</v>
+        <v>862568.3304600001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>699431.7018699999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>709307.4466899999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2214352.261</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>242257.50306</v>
@@ -1742,31 +1748,36 @@
         <v>275051.21652</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>471469.37824</v>
+        <v>471650.18657</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>610135.6243599999</v>
+        <v>603148.83899</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>134233.3581</v>
+        <v>522324.98466</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>401523.44671</v>
+        <v>403239.9945499999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>406537.8637</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1020574.79167</v>
+        <v>1021659.50521</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>688548.5103099999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>690603.14699</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1196807.065</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1.50611</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>112.61546</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>156.57709</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>75.37</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>25658.39278</v>
@@ -1859,13 +1880,13 @@
         <v>33441.56162</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>26862.21094</v>
+        <v>26887.58258</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>27135.42627</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>14354.68187</v>
+        <v>26911.30377</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>35668.39811</v>
@@ -1877,13 +1898,18 @@
         <v>102486.27299</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>157383.98548</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>157384.52316</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>173336.62</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>26.01518</v>
@@ -1910,7 +1936,7 @@
         <v>476.20026</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>5712.594010000001</v>
+        <v>5712.59401</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>6853.61141</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1315.49615</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2671.187</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>191.45228</v>
@@ -1937,13 +1968,13 @@
         <v>2257.40401</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1733.88132</v>
+        <v>1803.30922</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>2926.39286</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5043.160620000001</v>
+        <v>5043.160619999999</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>3504.57733</v>
@@ -1952,16 +1983,21 @@
         <v>2853.69399</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1054.54178</v>
+        <v>2133.25188</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2601.65327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3659.90091</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4751.413</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1023.74909</v>
@@ -1985,7 +2021,7 @@
         <v>279.10727</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>95.72935000000001</v>
+        <v>97.30557</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>232.69675</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>2492.96423</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>29120.108</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>187892.56167</v>
@@ -2018,28 +2059,33 @@
         <v>481962.24775</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>554669.3032399999</v>
+        <v>555247.3348</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>100756.87546</v>
+        <v>467739.9471</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>319231.58137</v>
+        <v>319650.42022</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>289613.87897</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>832241.1803800002</v>
+        <v>832254.8857400001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>430680.22126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>430892.18183</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>894675.404</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>17334.14486</v>
@@ -2060,7 +2106,7 @@
         <v>3012.43061</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3641.1473</v>
+        <v>3684.87851</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>4077.75346</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>13189.82434</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>9960.671</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>10129.68109</v>
@@ -2126,37 +2182,42 @@
         <v>13886.23569</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>-52209.02507000001</v>
+        <v>-52209.02507</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>-38601.32549</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>-42507.19345000001</v>
+        <v>-42421.18466000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>20244.51213</v>
+        <v>12679.6952</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9912.610429999999</v>
+        <v>18420.81224</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>38318.04956</v>
+        <v>39614.18233</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>42785.80292</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>72447.31232</v>
+        <v>72439.61040000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>80615.17303000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>81399.06382</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>82216.292</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>185080.52604</v>
@@ -2171,31 +2232,36 @@
         <v>275088.1391</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>566507.3287</v>
+        <v>590660.80351</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>567282.9128799998</v>
+        <v>567612.2576</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>196425.51142</v>
+        <v>564903.49538</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>411582.29912</v>
+        <v>411996.49578</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>499818.80102</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1205996.72938</v>
+        <v>1206004.02764</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>628994.61213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>629040.46043</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1443998.645</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1287.51953</v>
@@ -2213,16 +2279,16 @@
         <v>2938.93755</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2353.30652</v>
+        <v>2353.37257</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2367.54908</v>
+        <v>2372.61132</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>2489.13442</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>9951.253970000002</v>
+        <v>9951.253969999998</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>8708.29506</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>5891.88977</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>13272.554</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3615.66157</v>
@@ -2249,13 +2320,13 @@
         <v>13576.72588</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>29193.31344</v>
+        <v>30723.85556</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>17941.61092</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6847.52585</v>
+        <v>12545.30964</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>24822.72257</v>
@@ -2267,13 +2338,18 @@
         <v>49090.88766</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>51281.69638999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>51281.72296</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>73721.303</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3.34142</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>103.37183</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3174.275</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>177938.92098</v>
@@ -2327,31 +2408,36 @@
         <v>256288.34831</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>528025.44108</v>
+        <v>548707.02741</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>538680.36916</v>
+        <v>539009.5722000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>179141.5523</v>
+        <v>540647.78414</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>378346.60175</v>
+        <v>378634.35578</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>439964.34529</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1131384.15046</v>
+        <v>1131391.4487</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>558713.5110800001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>558759.33164</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1336797.099</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1204.11996</v>
@@ -2372,7 +2458,7 @@
         <v>4699.7786</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>3813.84296</v>
+        <v>3937.39799</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>3312.44218</v>
@@ -2381,16 +2467,21 @@
         <v>3229.45988</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>9680.91555</v>
+        <v>9680.915550000002</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>7442.50234</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>10221.139</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>15.06676</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1015.89582</v>
@@ -2444,37 +2540,42 @@
         <v>3379.56338</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4822.88026</v>
+        <v>6764.22662</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3574.60531</v>
+        <v>3574.68094</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4236.450539999999</v>
+        <v>5381.8016</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2611.24696</v>
+        <v>2737.68959</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>21079.6832</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7000.81292</v>
+        <v>7000.81294</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5561.640719999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5561.641890000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6812.275</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>104412.15142</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>70735.55548000001</v>
+        <v>70735.55548</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>104638.84974</v>
@@ -2483,31 +2584,36 @@
         <v>107376.09446</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>114214.22041</v>
+        <v>121692.40496</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>161274.04197</v>
+        <v>163174.52411</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>166154.48776</v>
+        <v>267037.24638</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>354587.63449</v>
+        <v>356501.15996</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>467313.76542</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>846095.89651</v>
+        <v>846101.32436</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>761745.06495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>762008.0245800001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>706277.193</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>85964.48147</v>
@@ -2522,31 +2628,36 @@
         <v>67264.06011000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>66171.36546</v>
+        <v>67741.2853</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>96013.31673000001</v>
+        <v>97913.79887</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>119329.85845</v>
+        <v>129522.76597</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>159969.66029</v>
+        <v>161883.18576</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>252938.17978</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>542155.57966</v>
+        <v>542161.00751</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>479577.94901</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>479840.90864</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>491597.87</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>18447.66995</v>
@@ -2561,13 +2672,13 @@
         <v>40112.03434999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>48042.85494999999</v>
+        <v>53951.11966</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>65260.72524</v>
+        <v>65260.72523999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>46824.62931</v>
+        <v>137514.48041</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>194617.9742</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>282167.11594</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>214679.323</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>60111.70209000001</v>
@@ -2600,31 +2716,36 @@
         <v>466531.90873</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>540429.3009800001</v>
+        <v>514635.06688</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>532162.5222799999</v>
+        <v>532202.26127</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>261581.52463</v>
+        <v>579541.45411</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>636388.9791999999</v>
+        <v>639036.48098</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>502657.85369</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-168187.88252</v>
+        <v>-167877.51633</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-2759.464900000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8862.108670000016</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1260883.488</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>6233.84248</v>
@@ -2639,31 +2760,36 @@
         <v>23844.50814</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>29895.05416</v>
+        <v>30973.20671</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>18698.23354</v>
+        <v>18712.70765</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>35685.94772</v>
+        <v>35866.82318</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>36503.84994</v>
+        <v>36534.9733</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>95958.76555</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>59416.63566</v>
+        <v>59429.98555</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>93427.84234999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>93611.70699999998</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>71509.065</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>217.11633</v>
@@ -2678,19 +2804,19 @@
         <v>111.78954</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2403.01448</v>
+        <v>2429.66448</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>2840.52919</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>87.46238</v>
+        <v>87.46238000000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>618.8418800000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>543.67711</v>
+        <v>543.6771100000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>944.76473</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2988.90688</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4331.27</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>6016.72615</v>
@@ -2717,31 +2848,36 @@
         <v>23732.7186</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>27492.03968</v>
+        <v>28543.54223</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>15857.70435</v>
+        <v>15872.17846</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>35598.48534</v>
+        <v>35779.36079999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>35885.00806</v>
+        <v>35916.13142000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>95415.08844000001</v>
+        <v>95415.08843999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>58471.87093</v>
+        <v>58485.22082000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>90438.93547</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>90622.80011999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>67177.795</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>13813.24925</v>
@@ -2756,31 +2892,36 @@
         <v>14863.56577</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>16793.8573</v>
+        <v>16895.50463</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>45416.15757</v>
+        <v>45462.56961</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>12962.56077</v>
+        <v>18661.75061</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>77993.70297999999</v>
+        <v>78220.08870000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>31856.29253</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>89033.94076</v>
+        <v>89037.64369</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>88235.9774</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>88294.28825999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>59661.094</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4644.76462</v>
@@ -2801,7 +2942,7 @@
         <v>1313.3999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>654.0940900000001</v>
+        <v>5755.469870000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>3216.91376</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>17433.63042</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>8717.759</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1258.97888</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>591.19683</v>
+        <v>591.1968300000001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>5814.8088</v>
@@ -2834,37 +2980,42 @@
         <v>2210.61788</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>586.6457800000001</v>
+        <v>684.54977</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>3690.39325</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>889.56544</v>
+        <v>1440.40368</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2142.58802</v>
+        <v>2169.05939</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2419.03923</v>
+        <v>2419.039229999999</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>3515.74691</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>40019.45239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>40022.18337999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13921.293</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>7909.50575</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4604.340480000001</v>
+        <v>4604.34048</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>33258.72543</v>
@@ -2873,37 +3024,42 @@
         <v>10851.93006</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>15068.75655</v>
+        <v>15072.49989</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>40412.36442000001</v>
+        <v>40458.77646</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11418.90124</v>
+        <v>11465.87706</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>72634.20119999998</v>
+        <v>72834.11555</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>28315.69832</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>57434.56285</v>
+        <v>57438.26578</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>30782.89459</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>30838.47446</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>37022.042</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>52532.29532</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>367977.4093300001</v>
+        <v>367977.40933</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>480396.22541</v>
@@ -2912,31 +3068,36 @@
         <v>475512.8511</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>553530.4978400001</v>
+        <v>528712.76896</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>505444.59825</v>
+        <v>505452.3993100001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>284304.91158</v>
+        <v>596746.52668</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>594899.12616</v>
+        <v>597351.3655799999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>566760.3267100001</v>
+        <v>566760.3267099999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-197805.18762</v>
+        <v>-197485.17447</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2432.400050000012</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>14179.52741</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1272731.459</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>10123.71173</v>
@@ -2945,40 +3106,45 @@
         <v>62915.55003</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>41007.025</v>
+        <v>41007.02499999999</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>37451.61411</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>55869.21564</v>
+        <v>55882.64614</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>86412.35684000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>49116.73954</v>
+        <v>86592.13537999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>96498.45602000001</v>
+        <v>97526.19858</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>63885.44935</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>65592.22566</v>
+        <v>65598.74361</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>65497.54362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>66063.19914</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>170306.359</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>42408.58358999999</v>
+        <v>42408.58359</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>305061.8593</v>
@@ -2990,28 +3156,31 @@
         <v>438061.23699</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>497661.2822</v>
+        <v>472830.12282</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>419032.24141</v>
+        <v>419040.04247</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>235188.17204</v>
+        <v>510154.3913</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>498400.67014</v>
+        <v>499825.167</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>502874.87736</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-263397.41328</v>
+        <v>-263083.91808</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-63065.14357000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-51883.67172999998</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1102425.1</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>471</v>
@@ -3044,28 +3216,31 @@
         <v>546</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>678</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>662</v>
+        <v>720</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>769</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>